--- a/AugerLogs/WCA15/WCA15_2_Texture.xlsx
+++ b/AugerLogs/WCA15/WCA15_2_Texture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\WCA15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarkLundineSurface\CarolinaBaySedimentology\AugerLogs\WCA15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6769E6-6A58-455A-920D-5C1265DCDAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED38E8E3-55BB-4E73-9720-0F50073DF11E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4088" yWindow="2595" windowWidth="14999" windowHeight="10523" xr2:uid="{9BBAEE25-1F48-4465-82AB-DC0D1BFA16F1}"/>
+    <workbookView xWindow="8108" yWindow="2970" windowWidth="11595" windowHeight="10335" xr2:uid="{9BBAEE25-1F48-4465-82AB-DC0D1BFA16F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -451,10 +451,11 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1.9434936473864412E-3</v>
+        <v>2.0631890127486658E-3</v>
       </c>
       <c r="D2">
-        <v>0.19434936473864411</v>
+        <f>C2*100</f>
+        <v>0.20631890127486657</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -465,10 +466,11 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1.3299878169054952E-2</v>
+        <v>1.4118987497690472E-2</v>
       </c>
       <c r="D3">
-        <v>1.3299878169054953</v>
+        <f t="shared" ref="D3:D9" si="0">C3*100</f>
+        <v>1.4118987497690472</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -479,10 +481,11 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>0.505438881475895</v>
+        <v>0.53656771571103046</v>
       </c>
       <c r="D4">
-        <v>50.543888147589499</v>
+        <f t="shared" si="0"/>
+        <v>53.656771571103043</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -493,10 +496,11 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>0.38627661426002208</v>
+        <v>0.41006651475026179</v>
       </c>
       <c r="D5">
-        <v>38.627661426002206</v>
+        <f t="shared" si="0"/>
+        <v>41.006651475026182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -507,10 +511,11 @@
         <v>180</v>
       </c>
       <c r="C6">
-        <v>2.5569994778673798E-2</v>
+        <v>2.7144792757282765E-2</v>
       </c>
       <c r="D6">
-        <v>2.5569994778673797</v>
+        <f t="shared" si="0"/>
+        <v>2.7144792757282765</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -521,10 +526,11 @@
         <v>125</v>
       </c>
       <c r="C7">
-        <v>5.6419330509949565E-3</v>
+        <v>5.989406910143504E-3</v>
       </c>
       <c r="D7">
-        <v>0.56419330509949561</v>
+        <f t="shared" si="0"/>
+        <v>0.59894069101435043</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -535,10 +541,11 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <v>1.7404420722863625E-3</v>
+        <v>1.8476319517152201E-3</v>
       </c>
       <c r="D8">
-        <v>0.17404420722863626</v>
+        <f t="shared" si="0"/>
+        <v>0.18476319517152201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -549,10 +556,11 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.0740268028079235E-3</v>
+        <v>2.2017614091273128E-3</v>
       </c>
       <c r="D9">
-        <v>0.20740268028079234</v>
+        <f t="shared" si="0"/>
+        <v>0.22017614091273127</v>
       </c>
     </row>
   </sheetData>
